--- a/app/templates/import_widompark_car_templates.xlsx
+++ b/app/templates/import_widompark_car_templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="导入" sheetId="1" r:id="rId1"/>
@@ -14,19 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
-  <si>
-    <t xml:space="preserve">
- 如是住户则需要填写  苑期区、幢、单元 、室号 
-停车场ID及停车区ID从停车场管理界面查看对应ID编号，开始时间，结束时间格式为2018-05-20</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>停车场ID从停车场管理界面查看对应ID编号，开始时间，结束时间格式为2018-05-20</t>
   </si>
   <si>
     <t>车牌*</t>
   </si>
   <si>
-    <t>是否住户</t>
-  </si>
-  <si>
     <t>苑期区</t>
   </si>
   <si>
@@ -42,28 +37,28 @@
     <t>车主姓名*</t>
   </si>
   <si>
-    <t>联系电话*</t>
+    <t>联系电话</t>
   </si>
   <si>
     <t>停车场ID*</t>
   </si>
   <si>
-    <t>停车区ID</t>
-  </si>
-  <si>
-    <t>停车卡号</t>
-  </si>
-  <si>
     <t>车位号*</t>
   </si>
   <si>
+    <t>车辆型号</t>
+  </si>
+  <si>
+    <t>车辆颜色</t>
+  </si>
+  <si>
+    <t>车辆排量(单位L)</t>
+  </si>
+  <si>
     <t>开始时间</t>
   </si>
   <si>
     <t>结束时间</t>
-  </si>
-  <si>
-    <t>租金</t>
   </si>
 </sst>
 </file>
@@ -72,10 +67,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -95,19 +90,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,8 +138,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,40 +178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +201,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -207,37 +224,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,25 +253,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,109 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,42 +434,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,23 +450,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,13 +480,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,174 +534,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -702,10 +697,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -1056,29 +1051,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="10.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="10.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="9.28571428571429" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" customWidth="1"/>
-    <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
-    <col min="7" max="8" width="12.5714285714286" customWidth="1"/>
-    <col min="9" max="10" width="13.1428571428571" customWidth="1"/>
-    <col min="11" max="12" width="12.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
+    <col min="4" max="4" width="9.14285714285714" customWidth="1"/>
+    <col min="5" max="5" width="9.28571428571429" customWidth="1"/>
+    <col min="6" max="7" width="12.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="13.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="12.8571428571429" customWidth="1"/>
+    <col min="10" max="11" width="12.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="21.8571428571429" customWidth="1"/>
     <col min="13" max="13" width="13.5714285714286" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.4285714285714" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="46" customHeight="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" ht="26" customHeight="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1095,9 +1090,8 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:15">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1139,19 +1133,17 @@
       </c>
       <c r="N2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576 N$1:N$1048576">
       <formula1>25569</formula1>

--- a/app/templates/import_widompark_car_templates.xlsx
+++ b/app/templates/import_widompark_car_templates.xlsx
@@ -19,19 +19,19 @@
     <t>停车场ID从停车场管理界面查看对应ID编号，开始时间，结束时间格式为2018-05-20</t>
   </si>
   <si>
-    <t>车牌*</t>
-  </si>
-  <si>
-    <t>苑期区</t>
-  </si>
-  <si>
-    <t>幢</t>
+    <t>车牌号*</t>
+  </si>
+  <si>
+    <t>区域</t>
+  </si>
+  <si>
+    <t>楼栋</t>
   </si>
   <si>
     <t>单元</t>
   </si>
   <si>
-    <t>室号</t>
+    <t>房号</t>
   </si>
   <si>
     <t>车主姓名*</t>
@@ -40,7 +40,7 @@
     <t>联系电话</t>
   </si>
   <si>
-    <t>停车场ID*</t>
+    <t>所在车场*</t>
   </si>
   <si>
     <t>车位号*</t>
@@ -67,10 +67,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -88,9 +88,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,20 +165,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +178,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -156,58 +210,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -216,23 +225,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +253,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -265,61 +391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,97 +427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,24 +444,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +458,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,17 +501,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,159 +538,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1066,8 +1066,7 @@
     <col min="5" max="5" width="9.28571428571429" customWidth="1"/>
     <col min="6" max="7" width="12.5714285714286" customWidth="1"/>
     <col min="8" max="8" width="13.1428571428571" customWidth="1"/>
-    <col min="9" max="9" width="12.8571428571429" customWidth="1"/>
-    <col min="10" max="11" width="12.8571428571429" customWidth="1"/>
+    <col min="9" max="11" width="12.8571428571429" customWidth="1"/>
     <col min="12" max="12" width="21.8571428571429" customWidth="1"/>
     <col min="13" max="13" width="13.5714285714286" style="2" customWidth="1"/>
     <col min="14" max="14" width="11.4285714285714" style="2" customWidth="1"/>

--- a/app/templates/import_widompark_car_templates.xlsx
+++ b/app/templates/import_widompark_car_templates.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanbaby/Documents/work/phpcode/api_basic_sqwn/app/templates/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12460"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="导入" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>停车场ID从停车场管理界面查看对应ID编号，开始时间，结束时间格式为2018-05-20</t>
+    <t>开始时间，结束时间格式为2018-05-20</t>
   </si>
   <si>
     <t>车牌号*</t>
@@ -50,6 +37,12 @@
     <t>车主姓名*</t>
   </si>
   <si>
+    <t>联系电话*</t>
+  </si>
+  <si>
+    <t>所在车场*</t>
+  </si>
+  <si>
     <t>车位号*</t>
   </si>
   <si>
@@ -66,24 +59,20 @@
   </si>
   <si>
     <t>结束时间</t>
-  </si>
-  <si>
-    <t>所在车场*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话*</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,12 +87,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,8 +251,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -125,26 +446,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -435,52 +1045,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" customWidth="1"/>
-    <col min="9" max="11" width="12.83203125" customWidth="1"/>
-    <col min="12" max="12" width="21.83203125" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="9.16190476190476" customWidth="1"/>
+    <col min="5" max="5" width="9.33333333333333" customWidth="1"/>
+    <col min="6" max="7" width="12.5047619047619" customWidth="1"/>
+    <col min="8" max="8" width="13.1619047619048" customWidth="1"/>
+    <col min="9" max="11" width="12.8285714285714" customWidth="1"/>
+    <col min="12" max="12" width="21.8285714285714" customWidth="1"/>
+    <col min="13" max="13" width="13.5047619047619" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.5047619047619" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="26" customHeight="1" spans="1:14">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,46 +1110,46 @@
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576 N1:N1048576">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576 N$1:N$1048576">
       <formula1>25569</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>